--- a/G30_nodeInformation.xlsx
+++ b/G30_nodeInformation.xlsx
@@ -462,10 +462,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -479,10 +479,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>193</v>
+        <v>1447</v>
       </c>
       <c r="B3" t="n">
-        <v>483</v>
+        <v>95</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>975</v>
+        <v>1332</v>
       </c>
       <c r="B4" t="n">
-        <v>458</v>
+        <v>62</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B5" t="n">
-        <v>375</v>
+        <v>586</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>603</v>
+        <v>849</v>
       </c>
       <c r="B6" t="n">
-        <v>343</v>
+        <v>234</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>962</v>
+        <v>600</v>
       </c>
       <c r="B7" t="n">
-        <v>236</v>
+        <v>465</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93</v>
+        <v>519</v>
       </c>
       <c r="B8" t="n">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -581,10 +581,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>811</v>
+        <v>1671</v>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>228</v>
+        <v>440</v>
       </c>
       <c r="B10" t="n">
-        <v>439</v>
+        <v>332</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>257</v>
+        <v>1333</v>
       </c>
       <c r="B11" t="n">
-        <v>370</v>
+        <v>492</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>328</v>
+        <v>1039</v>
       </c>
       <c r="B12" t="n">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>757</v>
+        <v>1503</v>
       </c>
       <c r="B13" t="n">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>963</v>
+        <v>1280</v>
       </c>
       <c r="B14" t="n">
-        <v>55</v>
+        <v>575</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="B15" t="n">
-        <v>344</v>
+        <v>496</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131</v>
+        <v>1438</v>
       </c>
       <c r="B16" t="n">
-        <v>144</v>
+        <v>417</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -717,10 +717,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>293</v>
+        <v>1312</v>
       </c>
       <c r="B17" t="n">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>222</v>
+        <v>1261</v>
       </c>
       <c r="B18" t="n">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>514</v>
+        <v>609</v>
       </c>
       <c r="B19" t="n">
-        <v>465</v>
+        <v>254</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>521</v>
+        <v>1673</v>
       </c>
       <c r="B20" t="n">
-        <v>378</v>
+        <v>529</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>118</v>
+        <v>336</v>
       </c>
       <c r="B21" t="n">
-        <v>217</v>
+        <v>429</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -802,10 +802,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>899</v>
+        <v>739</v>
       </c>
       <c r="B22" t="n">
-        <v>102</v>
+        <v>535</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -819,10 +819,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>717</v>
+        <v>1241</v>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>563</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>97</v>
+        <v>1616</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>580</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>887</v>
+        <v>1510</v>
       </c>
       <c r="B25" t="n">
-        <v>486</v>
+        <v>316</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>459</v>
+        <v>1645</v>
       </c>
       <c r="B26" t="n">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>393</v>
+        <v>799</v>
       </c>
       <c r="B27" t="n">
-        <v>202</v>
+        <v>455</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>824</v>
+        <v>435</v>
       </c>
       <c r="B28" t="n">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>705</v>
+        <v>630</v>
       </c>
       <c r="B29" t="n">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
@@ -938,10 +938,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>393</v>
+        <v>991</v>
       </c>
       <c r="B30" t="n">
-        <v>429</v>
+        <v>274</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>557</v>
+        <v>385</v>
       </c>
       <c r="B31" t="n">
-        <v>490</v>
+        <v>203</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
